--- a/Maven/target/test-classes/DataTest.xlsx
+++ b/Maven/target/test-classes/DataTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>UserName</t>
   </si>
@@ -109,8 +109,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -138,15 +138,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +155,61 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +223,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,53 +254,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -238,7 +261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,29 +269,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,61 +283,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,115 +451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +481,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,26 +531,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,21 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -563,21 +574,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,127 +596,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,14 +1052,14 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.3333333333333" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="19.1111111111111" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.3333333333333" collapsed="true"/>
+    <col min="1" max="1" width="38.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1102,9 +1102,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
@@ -1113,9 +1111,7 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
@@ -1124,9 +1120,7 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
@@ -1135,9 +1129,7 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
@@ -1146,9 +1138,7 @@
       <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
@@ -1166,9 +1156,7 @@
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -1177,9 +1165,7 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
@@ -1188,9 +1174,7 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
